--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_QuyetToanNienDo3.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_QuyetToanNienDo3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\2810_NH_ChuKy_Web\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\0711_fĩbugQTND_Web\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,142 +258,142 @@
     <t>&lt;#txtDonVi&gt;</t>
   </si>
   <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fHopDong_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fHopDong_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fKeHoach_TTCP_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fKeHoach_BQP_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fQTKinhPhiDuyetCacNamTruoc_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fQTKinhPhiDuyetCacNamTruoc_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fQTKinhPhiDuocCap_TongSo_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fQTKinhPhiDuocCap_TongSo_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fQTKinhPhiDuocCap_NamTruocChuyenSang_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fQTKinhPhiDuocCap_NamTruocChuyenSang_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fQTKinhPhiDuocCap_NamNay_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fQTKinhPhiDuocCap_NamNay_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fDeNghiQTNamNay_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fDeNghiQTNamNay_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fDeNghiChuyenNamSau_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fDeNghiChuyenNamSau_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fThuaThieuKinhPhiTrongNam_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fThuaThieuKinhPhiTrongNam_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fThuaNopNSNN_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fThuaNopNSNN_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fLuyKeKinhPhiDuocCap_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fLuyKeKinhPhiDuocCap_VND&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#dt.fKeHoachChuaGiaiNgan_USD&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fHopDong_USD;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fHopDong_VND;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fKeHoach_TTCP_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fHopDong_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuyetCacNamTruoc_USD;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuyetCacNamTruoc_VND;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_TongSo_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_TongSo_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_NamTruocChuyenSang_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_NamTruocChuyenSang_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_NamNay_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_NamNay_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fDeNghiQTNamNay_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fDeNghiQTNamNay_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fDeNghiChuyenNamSau_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fDeNghiChuyenNamSau_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fThuaThieuKinhPhiTrongNam_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fThuaThieuKinhPhiTrongNam_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fThuaNopNSNN_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fThuaNopNSNN_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fLuyKeKinhPhiDuocCap_USD;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fLuyKeKinhPhiDuocCap_VND;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#FormatNumber(&lt;#Aggregate(sum;dt;&lt;#dt.fKeHoachChuaGiaiNgan_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;)&gt;</t>
+    <t>&lt;#dt.fHopDong_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fHopDong_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fKeHoach_TTCP_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fKeHoach_BQP_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fQTKinhPhiDuyetCacNamTruoc_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fQTKinhPhiDuyetCacNamTruoc_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fQTKinhPhiDuocCap_TongSo_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fQTKinhPhiDuocCap_TongSo_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fQTKinhPhiDuocCap_NamTruocChuyenSang_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fQTKinhPhiDuocCap_NamTruocChuyenSang_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fQTKinhPhiDuocCap_NamNay_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fQTKinhPhiDuocCap_NamNay_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fDeNghiQTNamNay_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fDeNghiQTNamNay_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fDeNghiChuyenNamSau_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fDeNghiChuyenNamSau_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fThuaThieuKinhPhiTrongNam_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fThuaThieuKinhPhiTrongNam_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fThuaNopNSNN_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fThuaNopNSNN_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fLuyKeKinhPhiDuocCap_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fLuyKeKinhPhiDuocCap_VND&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#dt.fKeHoachChuaGiaiNgan_USD&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fHopDong_USD;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fHopDong_VND;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fKeHoach_TTCP_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fHopDong_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuyetCacNamTruoc_USD;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuyetCacNamTruoc_VND;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_TongSo_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_TongSo_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_NamTruocChuyenSang_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_NamTruocChuyenSang_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_NamNay_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fQTKinhPhiDuocCap_NamNay_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fDeNghiQTNamNay_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fDeNghiQTNamNay_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fDeNghiChuyenNamSau_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fDeNghiChuyenNamSau_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fThuaThieuKinhPhiTrongNam_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fThuaThieuKinhPhiTrongNam_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fThuaNopNSNN_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fThuaNopNSNN_VND;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fLuyKeKinhPhiDuocCap_USD;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fLuyKeKinhPhiDuocCap_VND;0&gt;;&lt;#dt.sLevel;&gt;="1")&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Aggregate(sum;dt;&lt;#dt.fKeHoachChuaGiaiNgan_USD;0&gt;;&lt;#dt.sLevel;&gt;="0")&gt;</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
@@ -691,6 +691,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,22 +721,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -732,23 +750,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1039,73 +1042,73 @@
   </sheetPr>
   <dimension ref="B1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="33" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="33" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="24"/>
-    <col min="2" max="2" width="7.109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" style="24" customWidth="1"/>
-    <col min="5" max="27" width="15.77734375" style="24" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="24"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="7.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="24" customWidth="1"/>
+    <col min="5" max="27" width="15.7109375" style="24" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+    <row r="1" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="69"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="U1" s="35"/>
       <c r="V1" s="22"/>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="48"/>
-    </row>
-    <row r="2" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="AA1" s="54"/>
+    </row>
+    <row r="2" spans="2:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="T2" s="22"/>
       <c r="U2" s="35"/>
     </row>
-    <row r="3" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+    <row r="3" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="U3" s="35"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="35"/>
@@ -1113,127 +1116,127 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
       <c r="H4" s="35"/>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
       <c r="T4" s="35"/>
       <c r="U4" s="35"/>
     </row>
-    <row r="5" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="U5" s="62" t="s">
+    <row r="5" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-    </row>
-    <row r="6" spans="2:27" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+    </row>
+    <row r="6" spans="2:27" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51" t="s">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51" t="s">
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51" t="s">
+      <c r="T6" s="57"/>
+      <c r="U6" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51" t="s">
+      <c r="V6" s="57"/>
+      <c r="W6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51" t="s">
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51" t="s">
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51" t="s">
+    <row r="7" spans="2:27" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51" t="s">
+      <c r="L7" s="57"/>
+      <c r="M7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51" t="s">
+      <c r="N7" s="57"/>
+      <c r="O7" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-    </row>
-    <row r="8" spans="2:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+    </row>
+    <row r="8" spans="2:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:27" s="41" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" s="41" customFormat="1" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>56</v>
       </c>
@@ -1362,29 +1365,29 @@
       <c r="T9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="U9" s="63" t="s">
+      <c r="U9" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="V9" s="64" t="s">
+      <c r="V9" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="W9" s="65" t="s">
+      <c r="W9" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="X9" s="66" t="s">
+      <c r="X9" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="Y9" s="67" t="s">
+      <c r="Y9" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="Z9" s="68" t="s">
+      <c r="Z9" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="67" t="s">
+      <c r="AA9" s="52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="41" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" s="41" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21" t="s">
@@ -1438,29 +1441,29 @@
       <c r="T10" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="U10" s="63" t="s">
+      <c r="U10" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="V10" s="63" t="s">
+      <c r="V10" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="63" t="s">
+      <c r="W10" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="X10" s="63" t="s">
+      <c r="X10" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="Y10" s="63" t="s">
+      <c r="Y10" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="Z10" s="63" t="s">
+      <c r="Z10" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="AA10" s="63" t="s">
+      <c r="AA10" s="48" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -1482,42 +1485,42 @@
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
     </row>
-    <row r="12" spans="2:27" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59" t="s">
+    <row r="12" spans="2:27" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="43"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50" t="s">
+      <c r="L12" s="56"/>
+      <c r="M12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50" t="s">
+      <c r="N12" s="56"/>
+      <c r="O12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="50"/>
+      <c r="P12" s="56"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="24" t="s">
         <v>44</v>
       </c>
       <c r="U12" s="28"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="60" t="s">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B13" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -1545,12 +1548,12 @@
       <c r="R13" s="34"/>
       <c r="U13" s="36"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="59" t="s">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B14" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -1569,19 +1572,19 @@
       <c r="T14" s="38"/>
       <c r="U14" s="36"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="60" t="s">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="60" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B16" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -1597,12 +1600,12 @@
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B17" s="60" t="s">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B17" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
@@ -1618,12 +1621,12 @@
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B18" s="60" t="s">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="22"/>
@@ -1631,7 +1634,7 @@
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1643,193 +1646,193 @@
       <c r="M19" s="27"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
-      <c r="W19" s="61" t="s">
+      <c r="W19" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-    </row>
-    <row r="20" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53" t="s">
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+    </row>
+    <row r="20" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="F20" s="25"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="39"/>
-      <c r="W20" s="53" t="s">
+      <c r="W20" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-    </row>
-    <row r="21" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="53" t="s">
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+    </row>
+    <row r="21" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
       <c r="F21" s="25"/>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
-      <c r="L21" s="58" t="s">
+      <c r="L21" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="39"/>
-      <c r="W21" s="53" t="s">
+      <c r="W21" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-    </row>
-    <row r="22" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+    </row>
+    <row r="22" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
       <c r="F22" s="25"/>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="39"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="58"/>
-    </row>
-    <row r="23" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+    </row>
+    <row r="23" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
       <c r="F23" s="25"/>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
       <c r="K23" s="26"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
       <c r="P23" s="28"/>
       <c r="Q23" s="39"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="58"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="58"/>
-    </row>
-    <row r="24" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+    </row>
+    <row r="24" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="F24" s="25"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
       <c r="K24" s="26"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
       <c r="P24" s="28"/>
       <c r="Q24" s="39"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="58"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="58"/>
-    </row>
-    <row r="25" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+    </row>
+    <row r="25" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="F25" s="25"/>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
       <c r="K25" s="26"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
       <c r="P25" s="28"/>
       <c r="Q25" s="39"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-    </row>
-    <row r="26" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+    </row>
+    <row r="26" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="F26" s="25"/>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="39"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B27" s="58" t="s">
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
       <c r="F27" s="25"/>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="58" t="s">
+      <c r="L27" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="28"/>
       <c r="Q27" s="39"/>
-      <c r="W27" s="58" t="s">
+      <c r="W27" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -1844,12 +1847,12 @@
       <c r="P28" s="28"/>
       <c r="Q28" s="39"/>
     </row>
-    <row r="29" spans="2:27" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B29" s="48" t="s">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
       <c r="F29" s="29" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +1868,7 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="39"/>
     </row>
-    <row r="30" spans="2:27" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="F30" s="29" t="s">
         <v>38</v>
       </c>
@@ -1879,7 +1882,7 @@
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
     </row>
-    <row r="31" spans="2:27" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="F31" s="29" t="s">
         <v>39</v>
       </c>
@@ -1931,18 +1934,18 @@
     <mergeCell ref="Y6:Z7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="S6:T7"/>
-    <mergeCell ref="O12:P12"/>
     <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="H3:T3"/>
     <mergeCell ref="I4:S4"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="E6:F7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="O12:P12"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -1960,23 +1963,23 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="3" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="3"/>
-    <col min="4" max="4" width="17.33203125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="9.109375" style="3"/>
-    <col min="8" max="8" width="21.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="3"/>
-    <col min="11" max="11" width="14.21875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="3"/>
-    <col min="13" max="13" width="23.88671875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="3"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="21.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="14.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="23.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +1997,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2010,7 +2013,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -2028,7 +2031,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2044,7 +2047,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2060,7 +2063,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
@@ -2080,7 +2083,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2096,7 +2099,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="H10" s="11" t="s">
         <v>53</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="H11" s="3" t="s">
         <v>54</v>
       </c>
@@ -2178,11 +2181,11 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="H13" s="11" t="s">
         <v>55</v>
       </c>
@@ -2192,7 +2195,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="H14" s="13" t="s">
         <v>70</v>
       </c>
